--- a/StructureDefinition-precauciones-solicitud-hospitalizacion.xlsx
+++ b/StructureDefinition-precauciones-solicitud-hospitalizacion.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T15:47:06-04:00</t>
+    <t>2023-06-30T18:27:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-precauciones-solicitud-hospitalizacion.xlsx
+++ b/StructureDefinition-precauciones-solicitud-hospitalizacion.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="132">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T18:27:12-04:00</t>
+    <t>2023-09-13T17:11:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -140,6 +140,10 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}ext-sol-hosp-2:Solamente se puede indicar precauciones del tipo Estándar si es que no se ha seleccionado ninguna otra precaución {value.coding.code contains 'estandar' implies value.coding.count() = 1}</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -753,41 +757,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.94921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.94921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.67578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="16.8359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="16.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="221.59375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="221.62109375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="8.734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.1640625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="23.3359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="8.5625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="73.24609375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="9.2890625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="23.2734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="2.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="45.8671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="45.9453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -887,7 +891,7 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>37</v>
@@ -895,10 +899,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -909,7 +913,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>37</v>
@@ -921,13 +925,13 @@
         <v>37</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -978,30 +982,30 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1024,13 +1028,13 @@
         <v>37</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1069,19 +1073,19 @@
         <v>37</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
@@ -1093,7 +1097,7 @@
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -1101,10 +1105,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1112,10 +1116,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
@@ -1127,16 +1131,16 @@
         <v>37</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1186,13 +1190,13 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>37</v>
@@ -1201,15 +1205,15 @@
         <v>37</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1217,13 +1221,13 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>37</v>
@@ -1232,13 +1236,13 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1289,30 +1293,30 @@
         <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>62</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1323,7 +1327,7 @@
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>37</v>
@@ -1335,13 +1339,13 @@
         <v>37</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1392,34 +1396,34 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1438,16 +1442,16 @@
         <v>37</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1485,19 +1489,19 @@
         <v>37</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
@@ -1509,18 +1513,18 @@
         <v>37</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1528,34 +1532,34 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P8" t="s" s="2">
         <v>37</v>
@@ -1604,7 +1608,7 @@
         <v>37</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
@@ -1616,18 +1620,18 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1638,7 +1642,7 @@
         <v>38</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>37</v>
@@ -1650,13 +1654,13 @@
         <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1707,34 +1711,34 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -1753,16 +1757,16 @@
         <v>37</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -1800,19 +1804,19 @@
         <v>37</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -1824,18 +1828,18 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1846,7 +1850,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>37</v>
@@ -1855,22 +1859,22 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>37</v>
@@ -1919,30 +1923,30 @@
         <v>37</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1953,7 +1957,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>37</v>
@@ -1962,19 +1966,19 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2024,30 +2028,30 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2055,32 +2059,32 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>37</v>
@@ -2105,11 +2109,11 @@
         <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>37</v>
@@ -2127,30 +2131,30 @@
         <v>37</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2158,32 +2162,32 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>37</v>
@@ -2232,30 +2236,30 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2266,7 +2270,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>37</v>
@@ -2275,22 +2279,22 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>37</v>
@@ -2339,30 +2343,30 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2373,7 +2377,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>37</v>
@@ -2382,22 +2386,22 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>37</v>
@@ -2446,22 +2450,22 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
